--- a/Zaoch/19/лаб6.xlsx
+++ b/Zaoch/19/лаб6.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2BD31B-CE36-49DB-8507-13AC5171B80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402EB63A-3A18-4137-8FAE-3170B43BBB7E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24576" yWindow="1536" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,23 +13,17 @@
     <sheet name="Summator2" sheetId="4" r:id="rId3"/>
     <sheet name="Summator3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t xml:space="preserve">стоимость = </t>
   </si>
@@ -133,16 +127,16 @@
     <t>сум итог</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ЭП</t>
   </si>
   <si>
     <t>ПП6</t>
   </si>
   <si>
-    <t xml:space="preserve"> П2</t>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>пп</t>
   </si>
 </sst>
 </file>
@@ -211,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -440,11 +434,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,9 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,19 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -526,15 +701,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,24 +719,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,7 +770,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -884,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>162320</v>
+        <v>155906</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
@@ -917,7 +1177,7 @@
       </c>
       <c r="I6" s="1">
         <f>E6*G6</f>
-        <v>194784</v>
+        <v>187087.19999999998</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.3">
@@ -930,15 +1190,15 @@
         <v>3</v>
       </c>
       <c r="L8" s="1">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="M8" s="1">
         <f>$I$6*L8</f>
-        <v>68174.399999999994</v>
-      </c>
-      <c r="N8" s="36">
+        <v>121606.68</v>
+      </c>
+      <c r="N8" s="33">
         <f>SUM(M8:M10)</f>
-        <v>194784</v>
+        <v>187087.19999999998</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.3">
@@ -946,26 +1206,26 @@
         <v>4</v>
       </c>
       <c r="L9" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ref="M9" si="0">$I$6*L9</f>
-        <v>58435.199999999997</v>
-      </c>
-      <c r="N9" s="36"/>
+        <v>37417.439999999995</v>
+      </c>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.3">
       <c r="K10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="1">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="M10" s="1">
         <f>$I$6*L10</f>
-        <v>68174.399999999994</v>
-      </c>
-      <c r="N10" s="36"/>
+        <v>28063.079999999998</v>
+      </c>
+      <c r="N10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -977,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:K24"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,292 +1252,309 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="48">
+        <v>33440</v>
+      </c>
+      <c r="E3" s="57">
+        <f>SUM(D3:D4)</f>
+        <v>38455</v>
+      </c>
+      <c r="F3" s="57">
+        <f>E3*'5 - OSR'!G6</f>
+        <v>46146</v>
+      </c>
+    </row>
     <row r="4" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
-        <v>5962</v>
-      </c>
-      <c r="E4" s="6">
-        <f>D4</f>
-        <v>5962</v>
-      </c>
-      <c r="F4" s="9">
-        <f>E4*'5 - OSR'!G6</f>
-        <v>7154.4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="D4" s="72">
+        <v>5015</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9493</v>
-      </c>
-      <c r="E5" s="37">
-        <f>SUM(D5:D7)</f>
-        <v>23040</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="C5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="32">
+        <v>10725</v>
+      </c>
+      <c r="E5" s="60">
+        <f>SUM(D5:D10)</f>
+        <v>24292</v>
+      </c>
+      <c r="F5" s="61">
         <f>E5*'5 - OSR'!G6</f>
-        <v>27648</v>
+        <v>29150.399999999998</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1">
         <f>'5 - OSR'!M8</f>
-        <v>68174.399999999994</v>
+        <v>121606.68</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="54">
-        <v>13547</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="47">
+        <v>13567</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="1">
         <f>H5-H7</f>
-        <v>-1226.4000000000087</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="45"/>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+        <v>3124.679999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1">
-        <f>SUM(F4:F17)</f>
-        <v>69400.800000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
-        <f>SUM(D8:D10)</f>
-        <v>1048</v>
-      </c>
-      <c r="F8" s="40">
-        <f>SUM(E8:E16)*'5 - OSR'!G6</f>
-        <v>6506.4</v>
-      </c>
+        <f>SUM(F3:F17)</f>
+        <v>118482</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1">
         <f>ROUND((K6/H5) * 100, 2)</f>
-        <v>-1.8</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1048</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="41"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="41"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="H9" s="1">
+        <f>D5*1.2</f>
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="59"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="H10" s="28">
+        <f>D6*1.2</f>
+        <v>16280.4</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="C11" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1698</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="B11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="49">
+        <v>752</v>
+      </c>
+      <c r="E11" s="35">
         <f>SUM(D11:D12)</f>
-        <v>1908</v>
-      </c>
-      <c r="F11" s="41"/>
+        <v>942</v>
+      </c>
+      <c r="F11" s="52">
+        <f>SUM(E11:E16)*'5 - OSR'!G6</f>
+        <v>13005.6</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="1">
         <f>K6+'5 - OSR'!M9</f>
-        <v>57208.799999999988</v>
+        <v>40542.119999999988</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="7">
-        <v>210</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="64">
+        <v>190</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="65">
+        <v>1418</v>
+      </c>
+      <c r="E13" s="35">
+        <f>SUM(D13:D14)</f>
+        <v>1418</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="37"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="37"/>
+      <c r="C15" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="64">
+        <v>6768</v>
+      </c>
+      <c r="E15" s="35">
+        <f>SUM(D15:D16)</f>
+        <v>8478</v>
+      </c>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="66">
+        <v>1710</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2256</v>
-      </c>
-      <c r="E13" s="38">
-        <f>SUM(D13:D14)</f>
-        <v>2466</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="7">
-        <v>210</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="41"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="38">
-        <f>SUM(D15:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="41"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="45"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2">
-        <v>23410</v>
+        <v>25150</v>
       </c>
       <c r="E17" s="3">
         <f>D17</f>
-        <v>23410</v>
+        <v>25150</v>
       </c>
       <c r="F17" s="3">
         <f>E17*'5 - OSR'!G6</f>
-        <v>28092</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+        <v>30180</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I19" s="1">
         <f>E4+E5+SUM(E8:E16)</f>
-        <v>34424</v>
+        <v>35130</v>
       </c>
       <c r="J19" s="1">
         <f>I19*1.2</f>
-        <v>41308.799999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J22" s="32">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="19">
-        <v>9493</v>
-      </c>
-      <c r="F23" s="1">
-        <f>E23*1.2</f>
-        <v>11391.6</v>
-      </c>
-      <c r="J23" s="34">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E24" s="54">
-        <v>13547</v>
-      </c>
-      <c r="F24" s="29">
-        <f>E24*1.2</f>
-        <v>16256.4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>238</v>
-      </c>
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <f>209+165</f>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>1316</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E24" s="71"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F5:F7"/>
+  <mergeCells count="15">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1289,7 +1566,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,22 +1576,20 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>18920</v>
+      <c r="B2" s="31"/>
+      <c r="C2" s="14">
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <f>C2</f>
-        <v>18920</v>
-      </c>
-      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
         <f>D2*'5 - OSR'!G6</f>
-        <v>22704</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1323,42 +1598,44 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="19">
-        <v>14000</v>
-      </c>
-      <c r="D3" s="37">
-        <f>SUM(C3:C5)</f>
-        <v>14000</v>
-      </c>
-      <c r="E3" s="37">
+      <c r="B3" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="75">
+        <v>10267</v>
+      </c>
+      <c r="D3" s="56">
+        <f>SUM(C3:C6)</f>
+        <v>29812</v>
+      </c>
+      <c r="E3" s="57">
         <f>D3*'5 - OSR'!G6</f>
-        <v>16800</v>
+        <v>35774.400000000001</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1">
         <f>Summator1!K11</f>
-        <v>57208.799999999988</v>
+        <v>40542.119999999988</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="76">
+        <v>10301</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1367,46 +1644,38 @@
       </c>
       <c r="J4" s="1">
         <f>G3-G5</f>
-        <v>-716.40000000000873</v>
+        <v>-1388.2800000000134</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="18">
-        <v>0</v>
+      <c r="A5" s="39"/>
+      <c r="B5" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="77">
+        <v>9244</v>
       </c>
       <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(E2:E18)</f>
-        <v>57925.2</v>
+        <v>41930.400000000001</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0</v>
-      </c>
-      <c r="D6" s="37">
-        <f>SUM(C6:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="37">
-        <f>SUM(C6:C17)*'5 - OSR'!G6</f>
-        <v>18421.2</v>
-      </c>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1415,71 +1684,90 @@
       </c>
       <c r="J6" s="1">
         <f>ROUND((J4/G3) * 100, 2)</f>
-        <v>-1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="17" t="s">
+        <v>-3.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="56">
+        <f>SUM(C7:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="57">
+        <f>SUM(C7:C17)*'5 - OSR'!G6</f>
+        <v>6156</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <f>C3*1.2</f>
+        <v>12320.4</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="28">
+        <f t="shared" ref="G8:G9" si="0">C4*1.2</f>
+        <v>12361.199999999999</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="38"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
+        <v>11092.8</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="1">
         <f>J4+'5 - OSR'!M10</f>
-        <v>67457.999999999985</v>
+        <v>26674.799999999985</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17">
-        <v>7641</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="A10" s="42"/>
+      <c r="B10" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1504</v>
+      </c>
+      <c r="D10" s="39">
         <f>SUM(C10:C11)</f>
-        <v>9531</v>
-      </c>
-      <c r="E10" s="38"/>
+        <v>2304</v>
+      </c>
+      <c r="E10" s="58"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1487,83 +1775,63 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="17">
-        <v>1890</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="13">
+        <v>800</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <f>C3</f>
-        <v>14000</v>
-      </c>
-      <c r="H11" s="1">
-        <f>G11*1.2</f>
-        <v>16800</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="17">
-        <v>3144</v>
-      </c>
-      <c r="D12" s="38">
+      <c r="C12" s="13">
+        <v>2256</v>
+      </c>
+      <c r="D12" s="39">
         <f>SUM(C12:C13)</f>
-        <v>3354</v>
-      </c>
-      <c r="E12" s="38"/>
+        <v>2826</v>
+      </c>
+      <c r="E12" s="58"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="26">
-        <f t="shared" ref="G12:G13" si="0">C4</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" ref="H12:H13" si="1">G12*1.2</f>
-        <v>0</v>
-      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="17">
-        <v>210</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="13">
+        <v>570</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2256</v>
-      </c>
-      <c r="D14" s="38">
+      <c r="A14" s="42"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="39">
         <f>SUM(C14:C15)</f>
-        <v>2466</v>
-      </c>
-      <c r="E14" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="58"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1571,13 +1839,13 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="17">
-        <v>210</v>
-      </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1585,14 +1853,14 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="38">
+      <c r="A16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39">
         <f>SUM(C16:C17)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1600,27 +1868,27 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(C2:C17)</f>
-        <v>48271</v>
+        <v>34942</v>
       </c>
       <c r="I17" s="1">
         <f>H17*1.2</f>
-        <v>57925.2</v>
+        <v>41930.400000000001</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1633,48 +1901,48 @@
         <f>C18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="30">
         <f>D18*'5 - OSR'!G6</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="23"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="23"/>
+      <c r="E25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E7:E17"/>
+    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1686,7 +1954,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C24"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,22 +1965,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>22187</v>
+        <v>10933</v>
       </c>
       <c r="D2" s="3">
         <f>C2</f>
-        <v>22187</v>
+        <v>10933</v>
       </c>
       <c r="E2" s="3">
         <f>D2*'5 - OSR'!G6</f>
-        <v>26624.399999999998</v>
+        <v>13119.6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1724,29 +1992,29 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="5">
-        <v>11067</v>
-      </c>
-      <c r="D3" s="37">
+        <v>5444</v>
+      </c>
+      <c r="D3" s="34">
         <f>SUM(C3:C5)</f>
-        <v>32120</v>
-      </c>
-      <c r="E3" s="37">
+        <v>5444</v>
+      </c>
+      <c r="E3" s="34">
         <f>D3*'5 - OSR'!G6</f>
-        <v>38544</v>
+        <v>6532.8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1">
         <f>Summator2!J9</f>
-        <v>67457.999999999985</v>
+        <v>26674.799999999985</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1756,15 +2024,13 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7">
-        <v>9720</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1780,21 +2046,19 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8">
-        <v>11333</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(E2:E18)</f>
-        <v>67458</v>
+        <v>26674.800000000003</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1804,22 +2068,22 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="34">
         <f>SUM(C6:C8)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="34">
         <f>SUM(D6:D17)*'5 - OSR'!G6</f>
-        <v>2289.6</v>
+        <v>7022.4</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1836,15 +2100,15 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1855,15 +2119,15 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1874,17 +2138,17 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="21">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="38"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1893,25 +2157,25 @@
       </c>
       <c r="J9" s="1">
         <f>J4+'5 - OSR'!M10</f>
-        <v>68174.399999999994</v>
+        <v>28063.079999999998</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7">
-        <v>1698</v>
-      </c>
-      <c r="D10" s="38">
+      <c r="C10" s="6">
+        <v>2836</v>
+      </c>
+      <c r="D10" s="35">
         <f>SUM(C10:C11)</f>
-        <v>1908</v>
-      </c>
-      <c r="E10" s="38"/>
+        <v>3216</v>
+      </c>
+      <c r="E10" s="35"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1922,13 +2186,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="7">
-        <v>210</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="6">
+        <v>380</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1939,17 +2203,21 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="38">
+      <c r="A12" s="42"/>
+      <c r="B12" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2256</v>
+      </c>
+      <c r="D12" s="35">
         <f>SUM(C12:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="38"/>
+        <v>2636</v>
+      </c>
+      <c r="E12" s="35"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="19">
+      <c r="H12" s="14">
         <v>16600</v>
       </c>
       <c r="I12" s="1">
@@ -1962,17 +2230,19 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="6">
+        <v>380</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="27">
+      <c r="H13" s="22">
         <v>12667</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="21">
         <f t="shared" ref="I13:I14" si="0">H13*1.2</f>
         <v>15200.4</v>
       </c>
@@ -1982,20 +2252,20 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="38">
+      <c r="A14" s="42"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="35">
         <f>SUM(C14:C15)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="28">
+      <c r="H14" s="23">
         <v>18857</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>22628.399999999998</v>
       </c>
@@ -2005,11 +2275,11 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2020,14 +2290,14 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="38">
+      <c r="A16" s="42"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="35">
         <f>SUM(C16:C17)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2038,22 +2308,22 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(C2:C17)</f>
-        <v>56215</v>
+        <v>22229</v>
       </c>
       <c r="I17" s="1">
         <f>H17*1.2</f>
-        <v>67458</v>
+        <v>26674.799999999999</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2061,10 +2331,10 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="2">
@@ -2091,7 +2361,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2101,7 +2371,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2123,72 +2393,55 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="32">
-        <v>194</v>
-      </c>
-      <c r="D21" s="19">
-        <v>11067</v>
-      </c>
-      <c r="E21" s="1">
-        <f>D21*1.2</f>
-        <v>13280.4</v>
-      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="1">
         <f>G5+Summator2!G5+Summator1!H7</f>
-        <v>194784</v>
+        <v>187087.2</v>
       </c>
       <c r="G21" s="1">
         <f>G3+Summator2!G5+Summator1!H7</f>
-        <v>194784</v>
+        <v>187087.19999999998</v>
       </c>
       <c r="H21" s="1">
         <f>H17+Summator2!H17+Summator1!I19</f>
-        <v>138910</v>
+        <v>92301</v>
       </c>
       <c r="I21" s="1">
         <f>I17+Summator2!I17+Summator1!J19</f>
-        <v>166692</v>
+        <v>110761.2</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="34">
-        <v>184</v>
-      </c>
-      <c r="D22" s="30">
-        <v>9720</v>
-      </c>
-      <c r="E22" s="29">
-        <f t="shared" ref="E22:E23" si="1">D22*1.2</f>
-        <v>11664</v>
-      </c>
+      <c r="C22" s="70">
+        <v>437</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="20"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="34">
-        <v>227</v>
-      </c>
-      <c r="D23" s="31">
-        <v>11333</v>
-      </c>
-      <c r="E23" s="29">
-        <f t="shared" si="1"/>
-        <v>13599.6</v>
-      </c>
+      <c r="C23" s="70">
+        <v>158</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2200,11 +2453,9 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <v>887</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2214,11 +2465,21 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+    </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E26" s="23"/>
+      <c r="E26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E6:E17"/>
     <mergeCell ref="B10:B11"/>
@@ -2228,11 +2489,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
